--- a/Data/data-lake/UWA/index_march_2025.xlsx
+++ b/Data/data-lake/UWA/index_march_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Cloud/github/lake-richmond/Data/data-lake/UWA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07DC514-8C24-3449-AEA5-14CEEEE9A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9097B156-BFAA-2A41-8B27-FF101C0B2B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12420" yWindow="9660" windowWidth="27240" windowHeight="16440" xr2:uid="{BAA33D2D-9E55-2F48-B295-63C5DC3C4760}"/>
+    <workbookView xWindow="14100" yWindow="6240" windowWidth="27240" windowHeight="16440" xr2:uid="{BAA33D2D-9E55-2F48-B295-63C5DC3C4760}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>0c</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>SITE8b - AAQ177-CAD_0136_19800104_211519_0001.csv</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>0b</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>10b</t>
   </si>
 </sst>
 </file>
@@ -477,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3120AAEF-2A03-C043-8B7A-6B835F73AB7A}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,16 +527,16 @@
         <v>45717</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>-32.282899999999998</v>
-      </c>
-      <c r="D2">
-        <v>115.712506</v>
-      </c>
-      <c r="E2">
-        <v>5.0999999999999996</v>
+        <v>22</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-32.282238999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>115.712091</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.1</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -534,40 +546,40 @@
       <c r="A3" s="2">
         <v>45717</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-32.282483999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <v>115.71246499999999</v>
+      </c>
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>-32.282967999999997</v>
-      </c>
-      <c r="D3" s="1">
-        <v>115.712808</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.9700000000000006</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45717</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>-32.283999000000001</v>
-      </c>
-      <c r="D4" s="1">
-        <v>115.71316400000001</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.3</v>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>-32.282899999999998</v>
+      </c>
+      <c r="D4">
+        <v>115.712506</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000004</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -575,19 +587,19 @@
         <v>45717</v>
       </c>
       <c r="B5" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
-        <v>-32.284976</v>
+        <v>-32.282967999999997</v>
       </c>
       <c r="D5" s="1">
-        <v>115.713632</v>
+        <v>115.712808</v>
       </c>
       <c r="E5" s="1">
-        <v>11.77</v>
+        <v>7.8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -595,19 +607,19 @@
         <v>45717</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>-32.285508</v>
+        <v>-32.283999000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>115.714326</v>
+        <v>115.71316400000001</v>
       </c>
       <c r="E6" s="1">
-        <v>12.32</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -615,19 +627,19 @@
         <v>45717</v>
       </c>
       <c r="B7" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>-32.286437999999997</v>
+        <v>-32.284976</v>
       </c>
       <c r="D7" s="1">
-        <v>115.71494300000001</v>
+        <v>115.713632</v>
       </c>
       <c r="E7" s="1">
-        <v>12.43</v>
+        <v>11.2</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -635,59 +647,59 @@
         <v>45717</v>
       </c>
       <c r="B8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>-32.287205</v>
+        <v>-32.285508</v>
       </c>
       <c r="D8" s="1">
-        <v>115.71599500000001</v>
+        <v>115.714326</v>
       </c>
       <c r="E8" s="1">
-        <v>13.13</v>
+        <v>11.8</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45717</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
+      <c r="B9" s="1">
+        <v>5</v>
       </c>
       <c r="C9" s="1">
-        <v>-32.287931</v>
+        <v>-32.286437999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>115.71683299999999</v>
+        <v>115.71494300000001</v>
       </c>
       <c r="E9" s="1">
-        <v>12.72</v>
+        <v>11.99</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45717</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>2</v>
+      <c r="B10" s="1">
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>-32.288345</v>
+        <v>-32.287205</v>
       </c>
       <c r="D10" s="1">
-        <v>115.71696900000001</v>
+        <v>115.71599500000001</v>
       </c>
       <c r="E10" s="1">
-        <v>8.32</v>
+        <v>12.7</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -695,19 +707,19 @@
         <v>45717</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1">
-        <v>-32.288539999999998</v>
+        <v>-32.287931</v>
       </c>
       <c r="D11" s="1">
-        <v>115.71747000000001</v>
+        <v>115.71683299999999</v>
       </c>
       <c r="E11" s="1">
-        <v>3.24</v>
+        <v>12.36</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -715,18 +727,98 @@
         <v>45717</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-32.288345</v>
+      </c>
+      <c r="D12" s="1">
+        <v>115.71696900000001</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-32.288539999999998</v>
+      </c>
+      <c r="D13" s="1">
+        <v>115.71747000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="1">
         <v>-32.288707000000002</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <v>115.71772</v>
       </c>
-      <c r="E12" s="1">
-        <v>2.66</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E14" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-32.289226999999997</v>
+      </c>
+      <c r="D15" s="1">
+        <v>115.718087</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45717</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-32.289521999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>115.71813</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="F16" t="s">
         <v>21</v>
       </c>
     </row>
